--- a/dataField/dataStorage/my_raw_data.xlsx
+++ b/dataField/dataStorage/my_raw_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunseokjeon/git/yield_calculator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunseokjeon/git/yield_calculator/dataField/dataStorage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E83C29-905F-AD45-8F6C-F72B939DCE55}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD30834-6DF9-8541-920F-FE7D1919E11C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="2560" windowWidth="28100" windowHeight="17440" xr2:uid="{6551E8ED-38DF-1D41-9757-25B6A91C0AFF}"/>
+    <workbookView xWindow="5500" yWindow="1960" windowWidth="28100" windowHeight="17440" xr2:uid="{6551E8ED-38DF-1D41-9757-25B6A91C0AFF}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,10 @@
   </si>
   <si>
     <t>rate of return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-05-30-수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -143,7 +147,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="기본" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -455,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB57119-047A-2A43-8CA8-77D96A763DB1}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -624,8 +628,43 @@
         <v>41</v>
       </c>
     </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>11940</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>11925</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/dataField/dataStorage/my_raw_data.xlsx
+++ b/dataField/dataStorage/my_raw_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunseokjeon/git/yield_calculator/dataField/dataStorage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD30834-6DF9-8541-920F-FE7D1919E11C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EE49CB-FF77-E544-9EA1-154390D9769E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5500" yWindow="1960" windowWidth="28100" windowHeight="17440" xr2:uid="{6551E8ED-38DF-1D41-9757-25B6A91C0AFF}"/>
+    <workbookView xWindow="13900" yWindow="1700" windowWidth="28100" windowHeight="17440" xr2:uid="{6551E8ED-38DF-1D41-9757-25B6A91C0AFF}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,17 @@
   </si>
   <si>
     <t>2018-05-30-수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KODEX 미국달러선물인버스3X</t>
+  </si>
+  <si>
+    <t>2018-06-05-화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>short</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -138,11 +149,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -459,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB57119-047A-2A43-8CA8-77D96A763DB1}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -662,6 +676,26 @@
         <v>20</v>
       </c>
     </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>12205</v>
+      </c>
+      <c r="E12">
+        <v>81</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataField/dataStorage/my_raw_data.xlsx
+++ b/dataField/dataStorage/my_raw_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunseokjeon/git/yield_calculator/dataField/dataStorage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EE49CB-FF77-E544-9EA1-154390D9769E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8EB0D7-71F8-224B-B15A-D622A3100510}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13900" yWindow="1700" windowWidth="28100" windowHeight="17440" xr2:uid="{6551E8ED-38DF-1D41-9757-25B6A91C0AFF}"/>
+    <workbookView xWindow="5500" yWindow="1700" windowWidth="28100" windowHeight="17440" xr2:uid="{6551E8ED-38DF-1D41-9757-25B6A91C0AFF}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,10 @@
   </si>
   <si>
     <t>short</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-06-18-월</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -149,7 +153,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -157,6 +161,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -473,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB57119-047A-2A43-8CA8-77D96A763DB1}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -696,6 +703,57 @@
         <v>0.02</v>
       </c>
     </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="3">
+        <v>15330</v>
+      </c>
+      <c r="E13">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="3">
+        <v>15325</v>
+      </c>
+      <c r="E14">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3">
+        <v>15315</v>
+      </c>
+      <c r="E15">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataField/dataStorage/my_raw_data.xlsx
+++ b/dataField/dataStorage/my_raw_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunseokjeon/git/yield_calculator/dataField/dataStorage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8EB0D7-71F8-224B-B15A-D622A3100510}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00326B03-A0EF-F24D-9F52-E22C98C051C9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5500" yWindow="1700" windowWidth="28100" windowHeight="17440" xr2:uid="{6551E8ED-38DF-1D41-9757-25B6A91C0AFF}"/>
+    <workbookView xWindow="-32020" yWindow="3060" windowWidth="28100" windowHeight="17440" xr2:uid="{6551E8ED-38DF-1D41-9757-25B6A91C0AFF}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="23">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,14 @@
   </si>
   <si>
     <t>2018-06-18-월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KODEX 미국달러선물레버리지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-07-23-월</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB57119-047A-2A43-8CA8-77D96A763DB1}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -754,6 +762,57 @@
         <v>110</v>
       </c>
     </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="3">
+        <v>8930</v>
+      </c>
+      <c r="E16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="3">
+        <v>8935</v>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="3">
+        <v>8935</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataField/dataStorage/my_raw_data.xlsx
+++ b/dataField/dataStorage/my_raw_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunseokjeon/git/yield_calculator/dataField/dataStorage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00326B03-A0EF-F24D-9F52-E22C98C051C9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55E9430-43EF-4444-84D3-37450CA7900A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32020" yWindow="3060" windowWidth="28100" windowHeight="17440" xr2:uid="{6551E8ED-38DF-1D41-9757-25B6A91C0AFF}"/>
+    <workbookView xWindow="9440" yWindow="2540" windowWidth="28100" windowHeight="17440" xr2:uid="{6551E8ED-38DF-1D41-9757-25B6A91C0AFF}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="24">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +115,10 @@
   </si>
   <si>
     <t>2018-07-23-월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-10-11-목</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB57119-047A-2A43-8CA8-77D96A763DB1}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -779,7 +783,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -796,7 +800,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -811,6 +815,46 @@
       </c>
       <c r="E18">
         <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="3">
+        <v>9190</v>
+      </c>
+      <c r="E19">
+        <v>110</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E20">
+        <v>110</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>

--- a/dataField/dataStorage/my_raw_data.xlsx
+++ b/dataField/dataStorage/my_raw_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunseokjeon/git/yield_calculator/dataField/dataStorage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55E9430-43EF-4444-84D3-37450CA7900A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343DF1A0-F585-6945-9BA4-9AB51ADBA95A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9440" yWindow="2540" windowWidth="28100" windowHeight="17440" xr2:uid="{6551E8ED-38DF-1D41-9757-25B6A91C0AFF}"/>
+    <workbookView xWindow="3900" yWindow="440" windowWidth="28100" windowHeight="15880" xr2:uid="{6551E8ED-38DF-1D41-9757-25B6A91C0AFF}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="23">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,9 +93,6 @@
   <si>
     <t>2018-05-30-수</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KODEX 미국달러선물인버스3X</t>
   </si>
   <si>
     <t>2018-06-05-화</t>
@@ -494,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB57119-047A-2A43-8CA8-77D96A763DB1}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -697,13 +694,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
       </c>
       <c r="D12">
         <v>12205</v>
@@ -720,7 +717,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -737,7 +734,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -754,7 +751,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -768,10 +765,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
         <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -785,10 +782,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
         <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -802,10 +799,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
         <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -819,13 +816,13 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="3">
         <v>9190</v>
@@ -839,13 +836,13 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="3">
         <v>9200</v>

--- a/dataField/dataStorage/my_raw_data.xlsx
+++ b/dataField/dataStorage/my_raw_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunseokjeon/git/yield_calculator/dataField/dataStorage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343DF1A0-F585-6945-9BA4-9AB51ADBA95A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2A3188-CD75-B944-8BB1-269197B48CE4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="440" windowWidth="28100" windowHeight="15880" xr2:uid="{6551E8ED-38DF-1D41-9757-25B6A91C0AFF}"/>
+    <workbookView xWindow="13980" yWindow="660" windowWidth="28100" windowHeight="15880" xr2:uid="{6551E8ED-38DF-1D41-9757-25B6A91C0AFF}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +116,10 @@
   </si>
   <si>
     <t>2018-10-11-목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-10-29-월</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB57119-047A-2A43-8CA8-77D96A763DB1}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -854,6 +858,23 @@
         <v>0.03</v>
       </c>
     </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3">
+        <v>9095</v>
+      </c>
+      <c r="E21">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataField/dataStorage/my_raw_data.xlsx
+++ b/dataField/dataStorage/my_raw_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunseokjeon/git/yield_calculator/dataField/dataStorage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2A3188-CD75-B944-8BB1-269197B48CE4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F52CF9-C416-A34A-85B0-DE0768F7E1CD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13980" yWindow="660" windowWidth="28100" windowHeight="15880" xr2:uid="{6551E8ED-38DF-1D41-9757-25B6A91C0AFF}"/>
+    <workbookView xWindow="3900" yWindow="440" windowWidth="28100" windowHeight="15880" xr2:uid="{6551E8ED-38DF-1D41-9757-25B6A91C0AFF}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="25">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,6 +120,10 @@
   </si>
   <si>
     <t>2018-10-29-월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-11-02-금</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -493,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB57119-047A-2A43-8CA8-77D96A763DB1}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -875,6 +879,23 @@
         <v>100</v>
       </c>
     </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3">
+        <v>8945</v>
+      </c>
+      <c r="E22">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataField/dataStorage/my_raw_data.xlsx
+++ b/dataField/dataStorage/my_raw_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunseokjeon/git/yield_calculator/dataField/dataStorage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F52CF9-C416-A34A-85B0-DE0768F7E1CD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8A00C9-D92A-A049-B382-41D705A77E8C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="440" windowWidth="28100" windowHeight="15880" xr2:uid="{6551E8ED-38DF-1D41-9757-25B6A91C0AFF}"/>
+    <workbookView xWindow="-29860" yWindow="1700" windowWidth="28100" windowHeight="15880" xr2:uid="{6551E8ED-38DF-1D41-9757-25B6A91C0AFF}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="26">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +124,10 @@
   </si>
   <si>
     <t>2018-11-02-금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-12-03-월</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB57119-047A-2A43-8CA8-77D96A763DB1}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -896,6 +900,26 @@
         <v>50</v>
       </c>
     </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="3">
+        <v>8735</v>
+      </c>
+      <c r="E23">
+        <v>155</v>
+      </c>
+      <c r="F23" s="2">
+        <v>-0.04</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
